--- a/results/Table 2_most common MDR phenotypes.xlsx
+++ b/results/Table 2_most common MDR phenotypes.xlsx
@@ -23,64 +23,64 @@
     <t>Recovered_Resistance_Pattern</t>
   </si>
   <si>
-    <t>Penicillin</t>
+    <t>PEN</t>
   </si>
   <si>
     <t>Pan-Susceptible</t>
   </si>
   <si>
-    <t>Erythromycin          Penicillin</t>
-  </si>
-  <si>
-    <t>Ciprofloxacin      Erythromycin   Levofloxacin   Moxifloxacin   Oxacillin Penicillin</t>
-  </si>
-  <si>
-    <t>Erythromycin         Oxacillin Penicillin</t>
-  </si>
-  <si>
-    <t>Ciprofloxacin  Clindamycin    Erythromycin   Levofloxacin   Moxifloxacin   Oxacillin Penicillin     Telithromycin</t>
-  </si>
-  <si>
-    <t>Erythromycin</t>
-  </si>
-  <si>
-    <t>Penicillin    Telavancin</t>
-  </si>
-  <si>
-    <t>Ciprofloxacin  Clindamycin    Erythromycin   Levofloxacin   Moxifloxacin   Oxacillin Penicillin</t>
-  </si>
-  <si>
-    <t>Oxacillin Penicillin</t>
-  </si>
-  <si>
-    <t>Erythromycin   Levofloxacin   Moxifloxacin   Oxacillin</t>
-  </si>
-  <si>
-    <t>Azithromycin        Erythromycin          Penicillin</t>
-  </si>
-  <si>
-    <t>Ciprofloxacin         Levofloxacin   Moxifloxacin   Oxacillin Penicillin</t>
-  </si>
-  <si>
-    <t>Ciprofloxacin      Erythromycin   Levofloxacin   Moxifloxacin    Penicillin</t>
-  </si>
-  <si>
-    <t>Ciprofloxacin      Erythromycin   Levofloxacin   Moxifloxacin   Oxacillin Penicillin    Telavancin</t>
-  </si>
-  <si>
-    <t>Azithromycin        Erythromycin   Levofloxacin      Oxacillin Penicillin</t>
-  </si>
-  <si>
-    <t>Azithromycin        Erythromycin</t>
-  </si>
-  <si>
-    <t>Azithromycin        Erythromycin   Levofloxacin   Moxifloxacin   Oxacillin Penicillin</t>
-  </si>
-  <si>
-    <t>Ciprofloxacin         Levofloxacin   Moxifloxacin    Penicillin</t>
-  </si>
-  <si>
-    <t>Erythromycin          Penicillin      Tetracycline</t>
+    <t>ERY, PEN</t>
+  </si>
+  <si>
+    <t>CIP, ERY, LEV, MXF, OXA, PEN</t>
+  </si>
+  <si>
+    <t>ERY, OXA, PEN</t>
+  </si>
+  <si>
+    <t>CIP, CM, ERY, LEV, MXF, OXA, PEN, TEL</t>
+  </si>
+  <si>
+    <t>ERY</t>
+  </si>
+  <si>
+    <t>PEN, TLV</t>
+  </si>
+  <si>
+    <t>CIP, CM, ERY, LEV, MXF, OXA, PEN</t>
+  </si>
+  <si>
+    <t>OXA, PEN</t>
+  </si>
+  <si>
+    <t>ERY, LEV, MXF, OXA</t>
+  </si>
+  <si>
+    <t>AZI, ERY, PEN</t>
+  </si>
+  <si>
+    <t>CIP, LEV, MXF, OXA, PEN</t>
+  </si>
+  <si>
+    <t>CIP, ERY, LEV, MXF, PEN</t>
+  </si>
+  <si>
+    <t>CIP, ERY, LEV, MXF, OXA, PEN, TLV</t>
+  </si>
+  <si>
+    <t>AZI, ERY, LEV, OXA, PEN</t>
+  </si>
+  <si>
+    <t>AZI, ERY</t>
+  </si>
+  <si>
+    <t>AZI, ERY, LEV, MXF, OXA, PEN</t>
+  </si>
+  <si>
+    <t>CIP, LEV, MXF, PEN</t>
+  </si>
+  <si>
+    <t>ERY, PEN, TET</t>
   </si>
   <si>
     <t>*</t>
@@ -258,7 +258,7 @@
         <v>16.0</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
